--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -1121,7 +1121,7 @@
   <dimension ref="B3:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -83,13 +96,7 @@
     <t>Gate2</t>
   </si>
   <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map1</t>
-  </si>
-  <si>
-    <t>Map2</t>
+    <t>MapManager</t>
   </si>
   <si>
     <t>Cache</t>
@@ -128,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1118,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:H30"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1341,7 +1348,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1355,10 +1362,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -1372,10 +1379,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1385,14 +1392,14 @@
       <c r="D17" s="5">
         <v>2</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="3">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -1406,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -1423,37 +1430,41 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="5">
-        <v>1009</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>29</v>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5">
+        <f>C21*10+1</f>
+        <v>10111</v>
       </c>
     </row>
     <row r="22" spans="3:8">
       <c r="C22" s="5">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D22" s="5">
         <v>2</v>
@@ -1465,16 +1476,16 @@
         <v>19</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="5">
         <f>C22*10+1</f>
-        <v>10111</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8">
+        <v>10121</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
       <c r="C23" s="5">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D23" s="5">
         <v>2</v>
@@ -1483,19 +1494,15 @@
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="5">
-        <f>C23*10+1</f>
-        <v>10121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="5">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D24" s="5">
         <v>2</v>
@@ -1504,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>23</v>
@@ -1512,7 +1519,7 @@
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="5">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D25" s="5">
         <v>2</v>
@@ -1521,15 +1528,15 @@
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" s="5">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -1538,15 +1545,15 @@
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="5">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -1555,15 +1562,15 @@
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="5">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
@@ -1576,40 +1583,6 @@
       </c>
       <c r="G28" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29" s="5">
-        <v>1018</v>
-      </c>
-      <c r="D29" s="5">
-        <v>2</v>
-      </c>
-      <c r="E29" s="5">
-        <v>2</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" s="5">
-        <v>1019</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1709,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1729,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1749,10 +1722,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1769,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1789,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>

--- a/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -48,6 +51,9 @@
     <t>外网端口</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Process</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
   </si>
   <si>
     <t>Realm</t>
+  </si>
+  <si>
+    <t>WS+10000</t>
   </si>
   <si>
     <t>Location</t>
@@ -1125,13 +1134,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B3:H28"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7583333333333" style="2" customWidth="1"/>
@@ -1141,69 +1150,79 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="2" spans="9:9">
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="3:9">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" customFormat="1" spans="2:8">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1212,7 +1231,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:8">
+    <row r="7" s="1" customFormat="1" spans="3:9">
       <c r="C7" s="5">
         <v>1</v>
       </c>
@@ -1223,13 +1242,16 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5">
-        <v>30002</v>
+        <v>17010</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="3:8">
@@ -1243,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H8" s="5"/>
     </row>
@@ -1261,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3">
         <v>18010</v>
@@ -1281,18 +1303,18 @@
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
       <c r="C12" s="5">
         <v>1001</v>
       </c>
@@ -1303,17 +1325,20 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H12" s="5">
         <f>C12*10+1</f>
         <v>10011</v>
       </c>
-    </row>
-    <row r="13" spans="3:8">
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
       <c r="C13" s="5">
         <v>1002</v>
       </c>
@@ -1324,15 +1349,18 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H13" s="5">
         <f>C13*10+1</f>
         <v>10021</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="5">
@@ -1345,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="3:7">
@@ -1362,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="3:7">
@@ -1379,10 +1407,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1396,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -1413,10 +1441,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -1430,18 +1458,18 @@
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="5">
         <v>1011</v>
       </c>
@@ -1452,17 +1480,20 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H21" s="5">
         <f>C21*10+1</f>
         <v>10111</v>
       </c>
-    </row>
-    <row r="22" spans="3:8">
+      <c r="I21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" s="5">
         <v>1012</v>
       </c>
@@ -1473,15 +1504,18 @@
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H22" s="5">
         <f>C22*10+1</f>
         <v>10121</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="5">
@@ -1494,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:7">
@@ -1511,10 +1545,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="3:7">
@@ -1528,10 +1562,10 @@
         <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="3:7">
@@ -1545,10 +1579,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="3:7">
@@ -1562,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="3:7">
@@ -1579,10 +1613,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1613,62 +1647,62 @@
   <sheetData>
     <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
@@ -1682,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -1702,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -1722,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -1742,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -1762,10 +1796,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
